--- a/src/test/java/org/bbreak/excella/reports/tag/RowRepeatParamParserTest_expected.xlsx
+++ b/src/test/java/org/bbreak/excella/reports/tag/RowRepeatParamParserTest_expected.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="105" windowWidth="15480" windowHeight="11640" firstSheet="5" activeTab="10"/>
+    <workbookView xWindow="900" yWindow="105" windowWidth="15480" windowHeight="11640" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -763,10 +763,10 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1583,7 +1583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
@@ -1606,7 +1606,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="80.099999999999994" customHeight="1">
-      <c r="A4" s="27"/>
+      <c r="A4" s="26"/>
       <c r="C4" s="16" t="s">
         <v>97</v>
       </c>
@@ -1620,7 +1620,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="80.099999999999994" customHeight="1">
-      <c r="A6" s="26"/>
+      <c r="A6" s="27"/>
       <c r="C6" s="16" t="s">
         <v>99</v>
       </c>
@@ -1637,7 +1637,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="80.099999999999994" customHeight="1">
-      <c r="A8" s="26"/>
+      <c r="A8" s="27"/>
     </row>
     <row r="9" spans="1:3" ht="99.95" customHeight="1">
       <c r="A9" s="31" t="s">
@@ -1645,7 +1645,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="80.099999999999994" customHeight="1">
-      <c r="A10" s="26"/>
+      <c r="A10" s="27"/>
     </row>
     <row r="11" spans="1:3" ht="99.95" customHeight="1">
       <c r="A11" s="31" t="s">
@@ -1653,7 +1653,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="80.099999999999994" customHeight="1">
-      <c r="A12" s="26"/>
+      <c r="A12" s="27"/>
     </row>
     <row r="13" spans="1:3" ht="110.1" customHeight="1">
       <c r="A13" s="30" t="s">
@@ -1661,7 +1661,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="90" customHeight="1">
-      <c r="A14" s="27"/>
+      <c r="A14" s="26"/>
     </row>
     <row r="15" spans="1:3" ht="110.1" customHeight="1">
       <c r="A15" s="30" t="s">
@@ -1669,7 +1669,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="90" customHeight="1">
-      <c r="A16" s="27"/>
+      <c r="A16" s="26"/>
     </row>
     <row r="17" spans="1:1" ht="110.1" customHeight="1">
       <c r="A17" s="30" t="s">
@@ -1677,7 +1677,7 @@
       </c>
     </row>
     <row r="18" spans="1:1" ht="90" customHeight="1">
-      <c r="A18" s="27"/>
+      <c r="A18" s="26"/>
     </row>
     <row r="19" spans="1:1" ht="110.1" customHeight="1">
       <c r="A19" s="30" t="s">
@@ -1685,7 +1685,7 @@
       </c>
     </row>
     <row r="20" spans="1:1" ht="90" customHeight="1">
-      <c r="A20" s="27"/>
+      <c r="A20" s="26"/>
     </row>
     <row r="21" spans="1:1" ht="110.1" customHeight="1">
       <c r="A21" s="30" t="s">
@@ -1693,7 +1693,7 @@
       </c>
     </row>
     <row r="22" spans="1:1" ht="90" customHeight="1">
-      <c r="A22" s="27"/>
+      <c r="A22" s="26"/>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="16" t="s">
@@ -1746,7 +1746,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="80.099999999999994" customHeight="1">
-      <c r="A4" s="26"/>
+      <c r="A4" s="27"/>
     </row>
     <row r="5" spans="1:3" ht="99.95" customHeight="1">
       <c r="A5" s="31" t="s">
@@ -1754,7 +1754,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="80.099999999999994" customHeight="1">
-      <c r="A6" s="26"/>
+      <c r="A6" s="27"/>
     </row>
     <row r="7" spans="1:3" ht="99.95" customHeight="1">
       <c r="A7" s="31" t="s">
@@ -1762,7 +1762,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="80.099999999999994" customHeight="1">
-      <c r="A8" s="26"/>
+      <c r="A8" s="27"/>
     </row>
     <row r="9" spans="1:3" ht="99.95" customHeight="1">
       <c r="A9" s="31" t="s">
@@ -1770,7 +1770,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="80.099999999999994" customHeight="1">
-      <c r="A10" s="26"/>
+      <c r="A10" s="27"/>
     </row>
     <row r="11" spans="1:3" ht="99.95" customHeight="1">
       <c r="A11" s="31" t="s">
@@ -1778,7 +1778,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="80.099999999999994" customHeight="1">
-      <c r="A12" s="26"/>
+      <c r="A12" s="27"/>
       <c r="C12" s="16" t="s">
         <v>91</v>
       </c>
@@ -1792,7 +1792,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="90" customHeight="1">
-      <c r="A14" s="27"/>
+      <c r="A14" s="26"/>
     </row>
     <row r="15" spans="1:3" ht="110.1" customHeight="1">
       <c r="A15" s="30" t="s">
@@ -1800,7 +1800,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="90" customHeight="1">
-      <c r="A16" s="27"/>
+      <c r="A16" s="26"/>
     </row>
     <row r="17" spans="1:3" ht="110.1" customHeight="1">
       <c r="A17" s="30" t="s">
@@ -1808,7 +1808,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="90" customHeight="1">
-      <c r="A18" s="27"/>
+      <c r="A18" s="26"/>
     </row>
     <row r="19" spans="1:3" ht="110.1" customHeight="1">
       <c r="A19" s="30" t="s">
@@ -1816,7 +1816,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="90" customHeight="1">
-      <c r="A20" s="27"/>
+      <c r="A20" s="26"/>
     </row>
     <row r="21" spans="1:3" ht="110.1" customHeight="1">
       <c r="A21" s="30" t="s">
@@ -1824,7 +1824,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="90" customHeight="1">
-      <c r="A22" s="27"/>
+      <c r="A22" s="26"/>
       <c r="C22" s="16" t="s">
         <v>93</v>
       </c>
@@ -1863,9 +1863,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -1981,7 +1979,11 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="3" max="16383" man="1"/>
+    <brk id="4" max="16383" man="1"/>
+  </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -2253,7 +2255,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:A11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
@@ -2283,11 +2287,11 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
       <c r="F3" t="s">
         <v>34</v>
       </c>
@@ -2311,11 +2315,11 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
       <c r="F5" t="s">
         <v>37</v>
       </c>
@@ -2338,10 +2342,10 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="E7" s="27"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="E7" s="26"/>
       <c r="F7" t="s">
         <v>40</v>
       </c>
@@ -2359,9 +2363,9 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="25" t="s">
@@ -2378,9 +2382,9 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
     </row>
     <row r="12" spans="1:6">
       <c r="E12" t="s">
@@ -2393,7 +2397,7 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="26"/>
+      <c r="A15" s="27"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="25" t="s">
@@ -2401,7 +2405,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="26"/>
+      <c r="A17" s="27"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="25" t="s">
@@ -2409,7 +2413,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="26"/>
+      <c r="A19" s="27"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="25" t="s">
@@ -2417,7 +2421,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="26"/>
+      <c r="A21" s="27"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="25" t="s">
@@ -2425,7 +2429,7 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="27"/>
+      <c r="A23" s="26"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
@@ -2440,6 +2444,17 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
@@ -2454,17 +2469,6 @@
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <hyperlinks>
@@ -2474,6 +2478,10 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="5" max="16383" man="1"/>
+    <brk id="9" max="16383" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>
 
@@ -2481,7 +2489,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:A16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
@@ -2521,11 +2531,11 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
       <c r="F4" t="s">
         <v>36</v>
       </c>
@@ -2556,11 +2566,11 @@
       <c r="E6" s="28"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="25" t="s">
@@ -2586,10 +2596,10 @@
       <c r="E9" s="28"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="26"/>
-      <c r="E10" s="27"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
+      <c r="E10" s="26"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="25" t="s">
@@ -2609,9 +2619,9 @@
       <c r="C12" s="28"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="25" t="s">
@@ -2630,9 +2640,9 @@
       <c r="C15" s="28"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
@@ -2647,6 +2657,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
     <mergeCell ref="E8:E10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="B11:B13"/>
@@ -2661,12 +2677,6 @@
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="E5:E7"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <hyperlinks>
@@ -2676,6 +2686,10 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="7" max="16383" man="1"/>
+    <brk id="13" max="16383" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>
 
